--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Documents\HR\Project 4\Project-4-Developing-a-cross-platform-application-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Documents\HR\Project 4\Developing-a-cross-platform-application-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>- make a diagram with astah (de eerste versie)</t>
   </si>
   <si>
     <t>Als developer wil ik comments bij alle code hebben staan, zodat ik snel de code kan begrijpen.</t>
@@ -199,6 +196,15 @@
   </si>
   <si>
     <t>Als user wil ik een bal die van de horizontale kanten kaatst, zodat ik het spel kan spelen.</t>
+  </si>
+  <si>
+    <t>Maak een diagram met astah (de eerste versie)</t>
+  </si>
+  <si>
+    <t>Update diagram in astah.</t>
+  </si>
+  <si>
+    <t>Het diagram is up to date met de het design.</t>
   </si>
 </sst>
 </file>
@@ -404,9 +410,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -458,16 +461,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -487,6 +480,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -816,50 +822,50 @@
   <dimension ref="A1:F997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="102.54296875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="24" customWidth="1"/>
-    <col min="5" max="13" width="11.453125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" style="24" customWidth="1"/>
-    <col min="15" max="16384" width="17.453125" style="24"/>
+    <col min="1" max="1" width="5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="102.54296875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="23" customWidth="1"/>
+    <col min="5" max="13" width="11.453125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.54296875" style="23" customWidth="1"/>
+    <col min="15" max="16384" width="17.453125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -867,8 +873,8 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>17</v>
+      <c r="B3" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -881,61 +887,63 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="E5" s="16"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="17" t="s">
-        <v>39</v>
+      <c r="E7" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -943,10 +951,10 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4"/>
@@ -957,10 +965,10 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
@@ -971,11 +979,11 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>23</v>
+      <c r="B10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -985,11 +993,11 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -999,15 +1007,15 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>23</v>
+      <c r="B12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="17" t="s">
-        <v>39</v>
+      <c r="E12" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1015,29 +1023,29 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>23</v>
+      <c r="B13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>23</v>
+      <c r="B14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="17" t="s">
-        <v>39</v>
+      <c r="E14" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1045,11 +1053,11 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1059,11 +1067,11 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="29" t="s">
         <v>34</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1073,15 +1081,15 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1089,15 +1097,15 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>23</v>
+      <c r="B18" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="17" t="s">
-        <v>39</v>
+      <c r="E18" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -2189,7 +2197,7 @@
   <dimension ref="A1:F997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2203,70 +2211,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -10217,10 +10237,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:F997"/>
+  <dimension ref="A1:F996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10235,164 +10255,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="37"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
         <v>10</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="30">
+        <v>12</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>16</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="30">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>12</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="30">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="50" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>10</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="35">
-        <v>12</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
-        <v>16</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="35">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
-        <v>12</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="35">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="D8" s="38">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10400,7 +10420,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10425,16 +10445,9 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-    </row>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="17" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="18" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -11416,7 +11429,6 @@
     <row r="994" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="995" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="996" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Het diagram is up to date met de het design.</t>
+  </si>
+  <si>
+    <t>Plaats comments bij alle code.</t>
+  </si>
+  <si>
+    <t>Alles code is voorzien van comments.</t>
   </si>
 </sst>
 </file>
@@ -482,6 +488,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -492,9 +501,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -825,7 +831,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -840,10 +846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="17"/>
       <c r="D1" s="24"/>
       <c r="E1" s="25"/>
@@ -880,7 +886,9 @@
         <v>10</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,10 +2219,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10240,7 +10248,7 @@
   <dimension ref="A1:F996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10255,10 +10263,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10394,7 +10402,7 @@
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="34">
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -10404,13 +10412,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+    <row r="9" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$2:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Als developer wil ik een visitor design pattern gebruiken, zodat mijn code veilig is.</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Alles code is voorzien van comments.</t>
+  </si>
+  <si>
+    <t>To do</t>
   </si>
 </sst>
 </file>
@@ -497,6 +497,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,9 +510,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,11 +836,11 @@
   </sheetPr>
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -855,10 +855,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="17"/>
       <c r="D1" s="24"/>
       <c r="E1" s="25"/>
@@ -896,7 +896,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -914,7 +914,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -932,7 +932,9 @@
         <v>26</v>
       </c>
       <c r="E5" s="16"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -946,7 +948,9 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -960,7 +964,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -976,7 +980,9 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1032,7 +1038,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1062,7 +1068,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1106,7 +1112,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1115,14 +1121,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -2228,10 +2234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2271,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>24</v>
@@ -2291,10 +2297,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10256,7 +10262,7 @@
   </sheetPr>
   <dimension ref="A1:F996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -10272,10 +10278,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10315,15 +10321,15 @@
         <v>36</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>37</v>
@@ -10335,10 +10341,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
@@ -10355,10 +10361,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
@@ -10366,7 +10372,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10375,10 +10381,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -10395,10 +10401,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
@@ -10415,14 +10421,14 @@
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="35">
         <v>1</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -10435,10 +10441,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver\homedir$\raoul\Desktop\git\Developing-a-cross-platform-application-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\My Documents\HR INF\INF 1L-1\git\Developing-a-cross-platform-application-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -212,12 +212,33 @@
   <si>
     <t>To do</t>
   </si>
+  <si>
+    <t>De computer kan zijn kant verdedigen</t>
+  </si>
+  <si>
+    <t>Computer beweegt automatisch naar de bal</t>
+  </si>
+  <si>
+    <t>Zet de code over naar een Desktop applicatie</t>
+  </si>
+  <si>
+    <t>De applicatie draait op zowel android als op Windows</t>
+  </si>
+  <si>
+    <t>De applicatie draait op een desktop</t>
+  </si>
+  <si>
+    <t>Schrijf een adapter zodat de code voor meerdere platvormen kan worden gebruikt</t>
+  </si>
+  <si>
+    <t>De adapter werkt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -285,6 +306,11 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -391,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -494,9 +520,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -510,6 +533,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,11 +892,11 @@
   </sheetPr>
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -855,10 +911,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="17"/>
       <c r="D1" s="24"/>
       <c r="E1" s="25"/>
@@ -898,7 +954,9 @@
       <c r="E3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -916,7 +974,9 @@
       <c r="E4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -932,9 +992,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -947,10 +1005,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="E6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -995,7 +1053,9 @@
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,7 +1070,9 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1023,7 +1085,9 @@
         <v>22</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,7 +1118,9 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
@@ -1083,7 +1149,9 @@
         <v>33</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,7 +1166,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2234,10 +2302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10262,30 +10330,30 @@
   </sheetPr>
   <dimension ref="A1:F996"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="43" customWidth="1"/>
     <col min="5" max="5" width="35.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="17.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -10294,16 +10362,16 @@
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="41" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="45" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10314,16 +10382,16 @@
       <c r="B3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="46" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10334,16 +10402,16 @@
       <c r="B4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="42" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="46" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10354,16 +10422,16 @@
       <c r="B5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="43">
         <v>12</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10374,16 +10442,16 @@
       <c r="B6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="43">
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="30" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10394,16 +10462,16 @@
       <c r="B7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="43">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10414,70 +10482,118 @@
       <c r="B8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>1</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="48" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A10" s="34">
+        <v>13</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>7</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="23" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>9</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="23" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>4</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="SPRINT 1 BACKLOG" sheetId="2" r:id="rId2"/>
     <sheet name="SPRINT 2 BACKLOG" sheetId="4" r:id="rId3"/>
+    <sheet name="SPRINT 3 BACKLOG" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$2:$B$6</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -216,29 +217,53 @@
     <t>De computer kan zijn kant verdedigen</t>
   </si>
   <si>
-    <t>Computer beweegt automatisch naar de bal</t>
+    <t>Schrijf een adapter zodat de code voor meerdere platvormen kan worden gebruikt.</t>
   </si>
   <si>
-    <t>Zet de code over naar een Desktop applicatie</t>
+    <t>Zet de code over naar een Desktop applicatie.</t>
   </si>
   <si>
-    <t>De applicatie draait op zowel android als op Windows</t>
+    <t>Computer beweegt automatisch naar de bal.</t>
   </si>
   <si>
-    <t>De applicatie draait op een desktop</t>
+    <t>De adapter werkt.</t>
   </si>
   <si>
-    <t>Schrijf een adapter zodat de code voor meerdere platvormen kan worden gebruikt</t>
+    <t>De applicatie draait op een desktop.</t>
   </si>
   <si>
-    <t>De adapter werkt</t>
+    <t>De applicatie draait op zowel android als op Windows.</t>
+  </si>
+  <si>
+    <t>Testen van de applicaties.</t>
+  </si>
+  <si>
+    <t>De applicatie is stabiel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database maken.
+Database linken aan applicatie.
+Score toevoegen aan de database
+</t>
+  </si>
+  <si>
+    <t>Database werkt en is gelinkt</t>
+  </si>
+  <si>
+    <t>Score weergeven op het scherm.</t>
+  </si>
+  <si>
+    <t>De score weergeven op het scherm en deze up to date houden.</t>
+  </si>
+  <si>
+    <t>SPRINT 3 BACKLOG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -311,6 +336,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -417,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -511,9 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -533,9 +569,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,6 +598,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,7 +938,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="A13" activeCellId="2" sqref="A8:XFD8 A10:XFD10 A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -911,10 +953,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="17"/>
       <c r="D1" s="24"/>
       <c r="E1" s="25"/>
@@ -954,7 +996,7 @@
       <c r="E3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -974,7 +1016,7 @@
       <c r="E4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1005,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="16"/>
@@ -1070,7 +1112,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1085,7 +1127,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="4"/>
@@ -1118,7 +1160,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1166,7 +1208,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="40"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2302,10 +2344,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10330,30 +10372,30 @@
   </sheetPr>
   <dimension ref="A1:F996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" style="30" customWidth="1"/>
     <col min="6" max="6" width="53.88671875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="17.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="44"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -10362,16 +10404,16 @@
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10382,16 +10424,16 @@
       <c r="B3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10402,33 +10444,33 @@
       <c r="B4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>10</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="43">
-        <v>12</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="41">
+        <v>13</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="30" t="s">
@@ -10436,19 +10478,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>16</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="41">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="30" t="s">
@@ -10456,19 +10498,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>12</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="41">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="30" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -10488,15 +10530,15 @@
       <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>1</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -10508,55 +10550,55 @@
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>13</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="49" t="s">
+      <c r="E10" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>12</v>
-      </c>
-      <c r="E11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="48" t="s">
-        <v>62</v>
+      <c r="F11" s="47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="23" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>9</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -10568,18 +10610,18 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>63</v>
+      <c r="F12" s="32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="23" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>4</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -10588,11 +10630,11 @@
       <c r="D13" s="4">
         <v>12</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>65</v>
+      <c r="E13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11587,4 +11629,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="17.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>6</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="23" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>8</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>11</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\My Documents\HR INF\INF 1L-1\git\Developing-a-cross-platform-application-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver\homedir$\raoul\My Documents\HR INF\INF 1L-1\git\Developing-a-cross-platform-application-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>SPRINT 3 BACKLOG</t>
+  </si>
+  <si>
+    <t>SQLite</t>
   </si>
 </sst>
 </file>
@@ -559,16 +562,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,6 +598,16 @@
     <xf numFmtId="49" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -953,10 +956,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="17"/>
       <c r="D1" s="24"/>
       <c r="E1" s="25"/>
@@ -996,7 +999,7 @@
       <c r="E3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1016,7 +1019,7 @@
       <c r="E4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1047,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="16"/>
@@ -1112,7 +1115,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1127,7 +1130,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="4"/>
@@ -1160,7 +1163,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1208,7 +1211,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2344,10 +2347,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10380,22 +10383,22 @@
   <cols>
     <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="37" customWidth="1"/>
     <col min="5" max="5" width="35.77734375" style="30" customWidth="1"/>
     <col min="6" max="6" width="53.88671875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="17.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -10404,16 +10407,16 @@
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10424,16 +10427,16 @@
       <c r="B3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="40" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10444,16 +10447,16 @@
       <c r="B4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="40" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10464,13 +10467,13 @@
       <c r="B5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <v>13</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="44" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="30" t="s">
@@ -10484,10 +10487,10 @@
       <c r="B6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="37">
         <v>8</v>
       </c>
       <c r="E6" s="29" t="s">
@@ -10504,10 +10507,10 @@
       <c r="B7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="37">
         <v>5</v>
       </c>
       <c r="E7" s="30" t="s">
@@ -10530,10 +10533,10 @@
       <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="41" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10550,10 +10553,10 @@
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="42" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10564,16 +10567,16 @@
       <c r="B10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="43" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10590,10 +10593,10 @@
       <c r="D11" s="4">
         <v>13</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="43" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10610,7 +10613,7 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="43" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="32" t="s">
@@ -11636,10 +11639,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11653,18 +11656,18 @@
     <col min="7" max="16384" width="17.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -11676,14 +11679,14 @@
       <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -11696,14 +11699,14 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -11716,14 +11719,14 @@
       <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>6</v>
       </c>
@@ -11743,7 +11746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="23" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>8</v>
       </c>
@@ -11762,8 +11765,11 @@
       <c r="F6" s="32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G6" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>11</v>
       </c>
@@ -11783,55 +11789,55 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
     </row>
   </sheetData>
